--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/192.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/192.xlsx
@@ -479,13 +479,13 @@
         <v>-12.14261494936974</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.69788011456024</v>
+        <v>-14.72223179784585</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06892059599793811</v>
+        <v>-0.04853588047337062</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.17413917392103</v>
+        <v>-11.20660808496851</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.84148776348144</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.85201579591588</v>
+        <v>-14.87397158778145</v>
       </c>
       <c r="F3" t="n">
-        <v>8.893228080000287e-05</v>
+        <v>0.02324921600781342</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.88041335966691</v>
+        <v>-10.91070894844266</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.46887436428025</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.21362520040435</v>
+        <v>-15.23766266842176</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03761147222518692</v>
+        <v>0.0588995566458335</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.51546541795379</v>
+        <v>-10.54843183650926</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-11.05084910235525</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.72341328845548</v>
+        <v>-15.7498073709844</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1653007018405413</v>
+        <v>0.1897309389432021</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.32907030239614</v>
+        <v>-10.36346378196135</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.57648205939155</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.20827363189596</v>
+        <v>-16.23651372912557</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1566466896621603</v>
+        <v>0.1799117118119075</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.17049633037715</v>
+        <v>-10.20632996325496</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.04498904198399</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.77917658961227</v>
+        <v>-16.81184188520238</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2917592549887734</v>
+        <v>0.3220941206730527</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.02285443123101</v>
+        <v>-10.05838694114345</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-9.450072492030117</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.36526661862498</v>
+        <v>-17.40168940513066</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4415221071952778</v>
+        <v>0.4687148201975429</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.817423107341485</v>
+        <v>-9.852811601922671</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.796894045101663</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.09237384154592</v>
+        <v>-18.13364078010304</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7192753119824964</v>
+        <v>0.7500291313577109</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.854186293721051</v>
+        <v>-9.890190126535799</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-8.089731253606459</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.57517869344025</v>
+        <v>-18.61926047710834</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7611706810760198</v>
+        <v>0.788114640324292</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.507999621980131</v>
+        <v>-9.542510932270922</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.334495952536275</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.1793230080717</v>
+        <v>-19.22683497508433</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8866865884196476</v>
+        <v>0.9136174553650781</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.460762593327184</v>
+        <v>-9.496648595416355</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.54169941198724</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.72624086698197</v>
+        <v>-19.77493114125035</v>
       </c>
       <c r="F12" t="n">
-        <v>1.04507726819885</v>
+        <v>1.075529964608704</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.969277544648786</v>
+        <v>-9.005634869640261</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.723836240308546</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.53898484279064</v>
+        <v>-20.59003173157053</v>
       </c>
       <c r="F13" t="n">
-        <v>1.229822753598446</v>
+        <v>1.262514233794236</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.477452096096506</v>
+        <v>-8.5183655424769</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.911038516736106</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.37090904226244</v>
+        <v>-21.42227014631053</v>
       </c>
       <c r="F14" t="n">
-        <v>1.550571080917893</v>
+        <v>1.586967682817892</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.021211526668035</v>
+        <v>-8.067689201756163</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.127414922157715</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.19438870640132</v>
+        <v>-22.24704594843075</v>
       </c>
       <c r="F15" t="n">
-        <v>1.663531469836306</v>
+        <v>1.701420594260261</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.580655536043953</v>
+        <v>-7.632029732394886</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.396141949552386</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.05177743490028</v>
+        <v>-23.10299452361711</v>
       </c>
       <c r="F16" t="n">
-        <v>1.941847643645718</v>
+        <v>1.981255475199314</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.002093581165236</v>
+        <v>-7.049762655811961</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.737579408718491</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.66490306928116</v>
+        <v>-23.71490257383371</v>
       </c>
       <c r="F17" t="n">
-        <v>2.132340649992833</v>
+        <v>2.172350727477148</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.915605828592794</v>
+        <v>-6.964898348791893</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.171479056916899</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.47720190679321</v>
+        <v>-24.52865465696119</v>
       </c>
       <c r="F18" t="n">
-        <v>2.548309295880153</v>
+        <v>2.592639833302238</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.514549315642199</v>
+        <v>-6.563710912812881</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.71435122018609</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.32742914563774</v>
+        <v>-25.38123851031724</v>
       </c>
       <c r="F19" t="n">
-        <v>2.813480797636473</v>
+        <v>2.85843976559496</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.211514874067608</v>
+        <v>-6.258372225938145</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.371398342471407</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.08056386660803</v>
+        <v>-26.13445178510458</v>
       </c>
       <c r="F20" t="n">
-        <v>3.035290592380996</v>
+        <v>3.080171006522433</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.098646131269088</v>
+        <v>-6.151211727178618</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.142181803223203</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.66458531177175</v>
+        <v>-26.7186957994166</v>
       </c>
       <c r="F21" t="n">
-        <v>3.353014597744004</v>
+        <v>3.39614064330465</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.768497530509281</v>
+        <v>-5.81756748156007</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.021740377542293</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.25095027914413</v>
+        <v>-27.30550590508561</v>
       </c>
       <c r="F22" t="n">
-        <v>3.559401659740974</v>
+        <v>3.598704752871836</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.622151769344467</v>
+        <v>-5.677741687210436</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.008316866562852</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.69827499033739</v>
+        <v>-27.75036926334462</v>
       </c>
       <c r="F23" t="n">
-        <v>3.742065468988736</v>
+        <v>3.780740131583195</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.423423704509907</v>
+        <v>-5.476892669315516</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.093689220887903</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.92767832073011</v>
+        <v>-27.98041411657659</v>
       </c>
       <c r="F24" t="n">
-        <v>3.87793738788017</v>
+        <v>3.917031004165563</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.260987503152612</v>
+        <v>-5.315228913825883</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.263897416305455</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.19510169857521</v>
+        <v>-28.24613549505226</v>
       </c>
       <c r="F25" t="n">
-        <v>4.193147671097567</v>
+        <v>4.232634056468212</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.967654457983739</v>
+        <v>-5.020089130864852</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.506069088418335</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.15502615957669</v>
+        <v>-28.20569337157416</v>
       </c>
       <c r="F26" t="n">
-        <v>4.353502196303027</v>
+        <v>4.396732980286407</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.971346487385106</v>
+        <v>-5.025797374903845</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.805958165605337</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.04713249185802</v>
+        <v>-28.09607151988039</v>
       </c>
       <c r="F27" t="n">
-        <v>4.306657936735331</v>
+        <v>4.347191706333315</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.787281801733279</v>
+        <v>-4.835893522184608</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.149263075566044</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.9957321109014</v>
+        <v>-28.04629458447615</v>
       </c>
       <c r="F28" t="n">
-        <v>4.286600528781807</v>
+        <v>4.323285161344323</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.70332086360929</v>
+        <v>-4.74814890853936</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.517929629903001</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.78270725136368</v>
+        <v>-27.83010138765073</v>
       </c>
       <c r="F29" t="n">
-        <v>4.274974563858354</v>
+        <v>4.310637996799216</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.583958338601273</v>
+        <v>-4.626691615076667</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.892725739355123</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.63718630527789</v>
+        <v>-27.6832188420694</v>
       </c>
       <c r="F30" t="n">
-        <v>4.178196261252315</v>
+        <v>4.210665172299795</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.537598494238721</v>
+        <v>-4.58006992465728</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.259421515767923</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.19284663913255</v>
+        <v>-27.23702006892054</v>
       </c>
       <c r="F31" t="n">
-        <v>4.033316838005774</v>
+        <v>4.063979011261097</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.629467183279114</v>
+        <v>-4.667500323034328</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.604930172514861</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.81692734763807</v>
+        <v>-26.85908456278843</v>
       </c>
       <c r="F32" t="n">
-        <v>3.947666992815202</v>
+        <v>3.976574797489734</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.709644445881843</v>
+        <v>-4.747245539643281</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.917610174093007</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.39725358004655</v>
+        <v>-26.43938461059122</v>
       </c>
       <c r="F33" t="n">
-        <v>3.814518272914848</v>
+        <v>3.842876200870027</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.648071345617206</v>
+        <v>-4.675957950670083</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.185667972950784</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.91112328323041</v>
+        <v>-25.95186652967386</v>
       </c>
       <c r="F34" t="n">
-        <v>3.685428166895429</v>
+        <v>3.711560403367514</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.469361411827645</v>
+        <v>-4.49275735700581</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.40259429989848</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.50468583381187</v>
+        <v>-25.54308555804665</v>
       </c>
       <c r="F35" t="n">
-        <v>3.446022317131626</v>
+        <v>3.472809168745798</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.476483624573544</v>
+        <v>-4.495690032842356</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.565632327554868</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.81561175064614</v>
+        <v>-24.85426022863492</v>
       </c>
       <c r="F36" t="n">
-        <v>3.229920766426096</v>
+        <v>3.252334788891131</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.746486186078461</v>
+        <v>-4.763597825892597</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.676223324470835</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.33745466626062</v>
+        <v>-24.37391672967483</v>
       </c>
       <c r="F37" t="n">
-        <v>3.099181030248619</v>
+        <v>3.122720990758043</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.741471834090079</v>
+        <v>-4.754799798382957</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.737884353630711</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.92291308138305</v>
+        <v>-23.95751603779373</v>
       </c>
       <c r="F38" t="n">
-        <v>3.026492564871356</v>
+        <v>3.049325541027327</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.884976565538239</v>
+        <v>-4.899993436897699</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.754477935461753</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.4235988356053</v>
+        <v>-23.45715440778865</v>
       </c>
       <c r="F39" t="n">
-        <v>2.998108452310494</v>
+        <v>3.021465120580134</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.756960028351842</v>
+        <v>-4.769175146903172</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.735763990166395</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.04084536202744</v>
+        <v>-23.07332736537776</v>
       </c>
       <c r="F40" t="n">
-        <v>3.086272019646677</v>
+        <v>3.114420470756389</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.744090294658425</v>
+        <v>-4.753241814344792</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.692539009345963</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.5106594661489</v>
+        <v>-22.54246066975145</v>
       </c>
       <c r="F41" t="n">
-        <v>3.104234659145526</v>
+        <v>3.12937188060164</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.672161182845982</v>
+        <v>-4.681168687201089</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.636850495044319</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.83542394708688</v>
+        <v>-21.86459359781825</v>
       </c>
       <c r="F42" t="n">
-        <v>3.199834654495809</v>
+        <v>3.223610276456384</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.699340803545406</v>
+        <v>-4.70908147685965</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.577801666900528</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.17256065421029</v>
+        <v>-21.20121970513082</v>
       </c>
       <c r="F43" t="n">
-        <v>3.317979595339545</v>
+        <v>3.342069432568322</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.741956249295224</v>
+        <v>-4.753935706395403</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.523857488225934</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.88391465345875</v>
+        <v>-20.91096335112976</v>
       </c>
       <c r="F44" t="n">
-        <v>3.225574121882643</v>
+        <v>3.24770011368516</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.793932691576877</v>
+        <v>-4.804458903061624</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.483223485769157</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.39847824869323</v>
+        <v>-20.42336671639536</v>
       </c>
       <c r="F45" t="n">
-        <v>3.351574444431415</v>
+        <v>3.375952312322708</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.742519218317418</v>
+        <v>-4.751435076552633</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.464795165465543</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.07022803184548</v>
+        <v>-20.09622934528915</v>
       </c>
       <c r="F46" t="n">
-        <v>3.379932372386593</v>
+        <v>3.403734178952851</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.720183749669433</v>
+        <v>-4.723338994654289</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.472772860555469</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.52793175583834</v>
+        <v>-19.55114440877672</v>
       </c>
       <c r="F47" t="n">
-        <v>3.388154338571197</v>
+        <v>3.410830207093067</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.991115864676113</v>
+        <v>-4.992412002657443</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.504789069702444</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.05327031631156</v>
+        <v>-19.07563196956523</v>
       </c>
       <c r="F48" t="n">
-        <v>3.318372364424797</v>
+        <v>3.339424787394293</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.106642344951504</v>
+        <v>-5.107440975424849</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.560268658983774</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.66495261402597</v>
+        <v>-18.69105866589237</v>
       </c>
       <c r="F49" t="n">
-        <v>3.337591864996451</v>
+        <v>3.358199149669328</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.394384976806958</v>
+        <v>-5.396793960529837</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.636002652923638</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.15087025064275</v>
+        <v>-18.17574562604203</v>
       </c>
       <c r="F50" t="n">
-        <v>3.477391474740402</v>
+        <v>3.50203118868853</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.313173422279732</v>
+        <v>-5.307674655086207</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.729039271118855</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.48563725095181</v>
+        <v>-17.51166474900116</v>
       </c>
       <c r="F51" t="n">
-        <v>3.493861591715294</v>
+        <v>3.520281858849897</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.526106635697565</v>
+        <v>-5.520424576264256</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.831670179944865</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.09366679617337</v>
+        <v>-17.11896112526359</v>
       </c>
       <c r="F52" t="n">
-        <v>3.323556916350121</v>
+        <v>3.347620568973213</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.815381066985502</v>
+        <v>-5.816362989698631</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.934422931142029</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.70313649470753</v>
+        <v>-16.72994953092738</v>
       </c>
       <c r="F53" t="n">
-        <v>3.358696657177314</v>
+        <v>3.381215418065082</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.845964686423774</v>
+        <v>-5.845650471155573</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.030259255980233</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.5051415988321</v>
+        <v>-16.53550264912207</v>
       </c>
       <c r="F54" t="n">
-        <v>3.093996478323296</v>
+        <v>3.115520224195094</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.023692697500206</v>
+        <v>-6.020786206269342</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.114833042979715</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.21424372199179</v>
+        <v>-16.24673881764496</v>
       </c>
       <c r="F55" t="n">
-        <v>2.946446225297043</v>
+        <v>2.968598401705243</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.167249798159732</v>
+        <v>-6.161109508126962</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.18368157631213</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.88389873668936</v>
+        <v>-15.91990256950411</v>
       </c>
       <c r="F56" t="n">
-        <v>2.892715414434599</v>
+        <v>2.91494614465985</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.47594011456195</v>
+        <v>-6.474918914940295</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.230453509603</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.33734746225866</v>
+        <v>-15.37303707980521</v>
       </c>
       <c r="F57" t="n">
-        <v>2.92822173974136</v>
+        <v>2.954092130156611</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.733557357578593</v>
+        <v>-6.732104111963162</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.252824953822036</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.13470479887443</v>
+        <v>-15.17258083099554</v>
       </c>
       <c r="F58" t="n">
-        <v>2.769752506145108</v>
+        <v>2.79653935775928</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.709166397384458</v>
+        <v>-6.708590336059421</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.249793091698543</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.78984044972052</v>
+        <v>-14.82914354285138</v>
       </c>
       <c r="F59" t="n">
-        <v>2.894810182889275</v>
+        <v>2.925001033242296</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.819521418037366</v>
+        <v>-6.817714680245208</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.225282375938384</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.73358282440962</v>
+        <v>-14.77547819350315</v>
       </c>
       <c r="F60" t="n">
-        <v>2.713743634588204</v>
+        <v>2.743908300335541</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823632401129668</v>
+        <v>-6.823737139552402</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.181249800127362</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.38958256724327</v>
+        <v>-14.4307578596805</v>
       </c>
       <c r="F61" t="n">
-        <v>2.599657307625403</v>
+        <v>2.630188557852308</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.230122219759579</v>
+        <v>-7.233748787646737</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.118239485200781</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.1820041056877</v>
+        <v>-14.22748676575986</v>
       </c>
       <c r="F62" t="n">
-        <v>2.553101078720225</v>
+        <v>2.585124851471087</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.177006747130696</v>
+        <v>-7.176273578171561</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.039755717743937</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.86297087004052</v>
+        <v>-13.90883320689509</v>
       </c>
       <c r="F63" t="n">
-        <v>2.48070064400548</v>
+        <v>2.512541124516558</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.377305888306264</v>
+        <v>-7.380251656445652</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.949380793465258</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.67503086274755</v>
+        <v>-13.72347238326193</v>
       </c>
       <c r="F64" t="n">
-        <v>2.391961015344261</v>
+        <v>2.425058356928144</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.395648204587522</v>
+        <v>-7.390961160170185</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.850590192157935</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.48517937923968</v>
+        <v>-13.53462900707288</v>
       </c>
       <c r="F65" t="n">
-        <v>2.151088827662184</v>
+        <v>2.176592633597867</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.741703953300026</v>
+        <v>-7.742227645413695</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.743282889906764</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.26945750531656</v>
+        <v>-13.31984977895436</v>
       </c>
       <c r="F66" t="n">
-        <v>2.084579929226216</v>
+        <v>2.110188473584632</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.786427259807362</v>
+        <v>-7.783429122456607</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.627143077923537</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.09962415285369</v>
+        <v>-13.15051393399948</v>
       </c>
       <c r="F67" t="n">
-        <v>2.357659181898938</v>
+        <v>2.393532091685268</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.863488554333761</v>
+        <v>-7.86567496890833</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.500910086039451</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.04944135606135</v>
+        <v>-13.10217715190782</v>
       </c>
       <c r="F68" t="n">
-        <v>2.06852876594226</v>
+        <v>2.097462755222474</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.764550021758837</v>
+        <v>-7.761578069013765</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.36811173117372</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.90906568499236</v>
+        <v>-12.96219424992409</v>
       </c>
       <c r="F69" t="n">
-        <v>2.12587305238902</v>
+        <v>2.162610054162903</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.836871902656532</v>
+        <v>-7.833886857608618</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.229268860493607</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.8856697398142</v>
+        <v>-12.94235941111887</v>
       </c>
       <c r="F70" t="n">
-        <v>2.124904221978732</v>
+        <v>2.159415532269522</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.746116059357687</v>
+        <v>-7.741638491785817</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.082996801273047</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.58009539148831</v>
+        <v>-12.63501760190935</v>
       </c>
       <c r="F71" t="n">
-        <v>2.08020710007708</v>
+        <v>2.115503948538373</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.456121551413455</v>
+        <v>-7.444940724786621</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.930615036031204</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.51229035507101</v>
+        <v>-12.56668887337838</v>
       </c>
       <c r="F72" t="n">
-        <v>2.089345527460604</v>
+        <v>2.122678530495639</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.520470219880538</v>
+        <v>-7.512117330667517</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.7742625696251</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.19912247109692</v>
+        <v>-12.24035013274552</v>
       </c>
       <c r="F73" t="n">
-        <v>2.065438982471612</v>
+        <v>2.098876723929381</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.255678394906629</v>
+        <v>-7.240504415913068</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.618864497682122</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.40092722709929</v>
+        <v>-12.4424429194104</v>
       </c>
       <c r="F74" t="n">
-        <v>2.089476450489022</v>
+        <v>2.121866807719452</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.204382752372746</v>
+        <v>-7.192089080004365</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.466741455050804</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.53368317791439</v>
+        <v>-12.57538216246529</v>
       </c>
       <c r="F75" t="n">
-        <v>2.021475029529096</v>
+        <v>2.053865386759527</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.131851394629583</v>
+        <v>-7.122202367435231</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.320148393622861</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.79298932799762</v>
+        <v>-12.83110102156988</v>
       </c>
       <c r="F76" t="n">
-        <v>2.002203159746076</v>
+        <v>2.032551117733197</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.786397891847799</v>
+        <v>-6.769888497964383</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.182982659392664</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.36889354539947</v>
+        <v>-13.40532942420799</v>
       </c>
       <c r="F77" t="n">
-        <v>1.994976208577443</v>
+        <v>2.026162073946434</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.728477544076004</v>
+        <v>-6.71715270211791</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.062895576090897</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.86139979369952</v>
+        <v>-13.89613367313862</v>
       </c>
       <c r="F78" t="n">
-        <v>2.045303020701038</v>
+        <v>2.077510085691684</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.74278743108201</v>
+        <v>-6.738414601932874</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.966729851520285</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.35000453575273</v>
+        <v>-14.38441110762079</v>
       </c>
       <c r="F79" t="n">
-        <v>2.090419096293626</v>
+        <v>2.121971546142186</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.64555089787651</v>
+        <v>-6.644752267403165</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.898096694826691</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.89849347100401</v>
+        <v>-14.93245490457544</v>
       </c>
       <c r="F80" t="n">
-        <v>1.980627044662911</v>
+        <v>2.007754296150968</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.294611720204044</v>
+        <v>-6.289950860392389</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.863786851305717</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.67067749260901</v>
+        <v>-15.70407595715825</v>
       </c>
       <c r="F81" t="n">
-        <v>2.079002608215641</v>
+        <v>2.107753305256071</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.235905834261744</v>
+        <v>-6.233863435018434</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.871442671559677</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.39997113010452</v>
+        <v>-16.43223056430653</v>
       </c>
       <c r="F82" t="n">
-        <v>2.05101126474003</v>
+        <v>2.076960208972332</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.135396225345812</v>
+        <v>-6.132633749446208</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.932352074522987</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.27648771305524</v>
+        <v>-17.30910063943398</v>
       </c>
       <c r="F83" t="n">
-        <v>2.03181794877406</v>
+        <v>2.058892831050749</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.840439734624566</v>
+        <v>-5.836079997778271</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.054316526654805</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.3303919072085</v>
+        <v>-18.36224548002242</v>
       </c>
       <c r="F84" t="n">
-        <v>2.044753143981685</v>
+        <v>2.06852876594226</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.72851363763065</v>
+        <v>-5.727649545643096</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.240475653108397</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.12972936490725</v>
+        <v>-19.16099378409329</v>
       </c>
       <c r="F85" t="n">
-        <v>2.07088538045377</v>
+        <v>2.096258263361036</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.590494581073173</v>
+        <v>-5.592825010979001</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.499467867763086</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.27764938576695</v>
+        <v>-20.31168937315543</v>
       </c>
       <c r="F86" t="n">
-        <v>2.058657169599599</v>
+        <v>2.083663468027295</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.252595337031066</v>
+        <v>-5.253040475327684</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.837799513409328</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.34355922162607</v>
+        <v>-21.37790033197992</v>
       </c>
       <c r="F87" t="n">
-        <v>1.883194126914786</v>
+        <v>1.899114367170325</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.892282070523922</v>
+        <v>-4.888681687242448</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.259225025238575</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.6856773705371</v>
+        <v>-22.71908892738918</v>
       </c>
       <c r="F88" t="n">
-        <v>1.977144492107012</v>
+        <v>1.994976208577443</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.661870632812385</v>
+        <v>-4.661962278932277</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.758283640793794</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.06688913573351</v>
+        <v>-24.09635990943024</v>
       </c>
       <c r="F89" t="n">
-        <v>1.843184049430471</v>
+        <v>1.864367395428383</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.277402067562257</v>
+        <v>-4.275425129833157</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.328395761965919</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.53605499142065</v>
+        <v>-25.56463548852413</v>
       </c>
       <c r="F90" t="n">
-        <v>1.629151082573933</v>
+        <v>1.647349383523932</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.163472848233558</v>
+        <v>-4.165148662997298</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.962598572475971</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.17945321332547</v>
+        <v>-27.20754929522381</v>
       </c>
       <c r="F91" t="n">
-        <v>1.424413650735021</v>
+        <v>1.440752844681495</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.062360993386907</v>
+        <v>-4.061182686131152</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.651681901284327</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.77349345351698</v>
+        <v>-28.79667992184968</v>
       </c>
       <c r="F92" t="n">
-        <v>1.301725680805206</v>
+        <v>1.316349783079414</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.792594093333141</v>
+        <v>-3.790329124941523</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.381252285620174</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.62254556845964</v>
+        <v>-30.64371582215471</v>
       </c>
       <c r="F93" t="n">
-        <v>1.162960362985751</v>
+        <v>1.176851296300822</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.783468758252458</v>
+        <v>-3.778860267652171</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.12529239280566</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.70020238332167</v>
+        <v>-32.71845305348304</v>
       </c>
       <c r="F94" t="n">
-        <v>1.049292989713885</v>
+        <v>1.062162723407302</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.77756412967084</v>
+        <v>-3.77096560903861</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-8.869843325851646</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.73100184631317</v>
+        <v>-34.74643767136357</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6450812317784348</v>
+        <v>0.6582520884372112</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.762900750488106</v>
+        <v>-3.755451230171164</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.598745430310657</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.70149816241568</v>
+        <v>-36.71473448058866</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4214516069389118</v>
+        <v>0.4372278318631917</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.976082717659932</v>
+        <v>-3.970309012106731</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-10.2942800053705</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.78996921942498</v>
+        <v>-38.80112386144613</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0395098561372372</v>
+        <v>0.0527723589159057</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.972770365040975</v>
+        <v>-3.962885676395472</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-10.94164347426135</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.01240071911082</v>
+        <v>-41.01793876321287</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1700062662389051</v>
+        <v>-0.1542824105259921</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.172925490885284</v>
+        <v>-4.162752771577263</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-11.51688823242204</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.39129833005813</v>
+        <v>-43.39476779031119</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.09078474174362064</v>
+        <v>-0.07525727057333352</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.501882692086493</v>
+        <v>-4.492142018772249</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-12.0222010083872</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79624962366048</v>
+        <v>-45.79609251602638</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3597661036268827</v>
+        <v>-0.3499206918899047</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.685030916539398</v>
+        <v>-4.672488490417025</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-12.43738497427649</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19489042729311</v>
+        <v>-48.19453693511638</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.2956269120052667</v>
+        <v>-0.2816443325703032</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.962090229276006</v>
+        <v>-4.945855773752266</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-12.78682865716882</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.4108412370723</v>
+        <v>-50.40701828464251</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.442339257649649</v>
+        <v>-0.4293909701391819</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.320492019568257</v>
+        <v>-5.306064301836675</v>
       </c>
     </row>
   </sheetData>
